--- a/Excel_to_DF/Rat2_Exp1_4_days_USVs.xlsx
+++ b/Excel_to_DF/Rat2_Exp1_4_days_USVs.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\OneDrive\Desktop\hold\Excel_to_DF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E92FC0-3E0C-47A6-A6A3-A059E90112CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5244D535-A467-4B0B-9418-73B5E6335730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11625" yWindow="150" windowWidth="15705" windowHeight="14685" xr2:uid="{5D8E3101-0D45-4CE7-A545-35670098660F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rat 2 Exp1 4 days USVs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -895,7 +895,7 @@
   <dimension ref="A1:D1378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
